--- a/resources/experiment 2/metrics/R2/average time/Edema macular diabético.xlsx
+++ b/resources/experiment 2/metrics/R2/average time/Edema macular diabético.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9476746610896103</v>
+        <v>0.9977675495182273</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9476746610896103</v>
+        <v>0.9977804364125892</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9476746610896103</v>
+        <v>0.9866095193045398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9987805946557474</v>
+        <v>0.9969037223432045</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9987805946557474</v>
+        <v>0.997012005038021</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9987805946557474</v>
+        <v>0.9680572685078858</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8055985100631359</v>
+        <v>0.9988769499527667</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8055985100631359</v>
+        <v>0.9986691538517337</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8055985100631359</v>
+        <v>0.998339619466513</v>
       </c>
     </row>
   </sheetData>
